--- a/data/samples/test_sample.xlsx
+++ b/data/samples/test_sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="540" windowWidth="20775" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="270" yWindow="540" windowWidth="20775" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_Data" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Product</t>
   </si>
@@ -146,6 +146,36 @@
   </si>
   <si>
     <t>Multiplication</t>
+  </si>
+  <si>
+    <t>Супер заголовко</t>
+  </si>
+  <si>
+    <t>малый заголовок 1</t>
+  </si>
+  <si>
+    <t>малый заголовок 2</t>
+  </si>
+  <si>
+    <t>малый заголовок 3</t>
+  </si>
+  <si>
+    <t>малый заголовок4</t>
+  </si>
+  <si>
+    <t>малый заголовок 5</t>
+  </si>
+  <si>
+    <t>А тут просто текст</t>
+  </si>
+  <si>
+    <t>Вася</t>
+  </si>
+  <si>
+    <t>Мася</t>
+  </si>
+  <si>
+    <t>Пуся</t>
   </si>
 </sst>
 </file>
@@ -181,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -204,15 +234,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -256,24 +454,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="119354496"/>
-        <c:axId val="119356416"/>
+        <c:axId val="139023488"/>
+        <c:axId val="139025024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119354496"/>
+        <c:axId val="139023488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119356416"/>
+        <c:crossAx val="139025024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119356416"/>
+        <c:axId val="139025024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -281,7 +479,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119354496"/>
+        <c:crossAx val="139023488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -294,7 +492,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -392,7 +590,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -748,15 +946,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,7 +977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -804,7 +1002,7 @@
         <v>157.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -829,7 +1027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -854,7 +1052,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -879,7 +1077,104 @@
         <v>65</v>
       </c>
     </row>
+    <row r="7" spans="1:10">
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+      <c r="F9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="F10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="F11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="2">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2">
+        <v>45</v>
+      </c>
+      <c r="I11" s="2">
+        <f>G11+H11</f>
+        <v>65</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="F12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="2">
+        <v>30</v>
+      </c>
+      <c r="H12" s="2">
+        <v>35</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" ref="I12:I13" si="0">G12+H12</f>
+        <v>65</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="F13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
+        <v>25</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="F14" s="4"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F9:J9"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1021,7 +1316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>

--- a/data/samples/test_sample.xlsx
+++ b/data/samples/test_sample.xlsx
@@ -185,7 +185,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,13 +202,38 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -389,28 +414,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -454,24 +483,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="139023488"/>
-        <c:axId val="139025024"/>
+        <c:axId val="126729216"/>
+        <c:axId val="126812928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139023488"/>
+        <c:axId val="126729216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139025024"/>
+        <c:crossAx val="126812928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139025024"/>
+        <c:axId val="126812928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -479,7 +508,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139023488"/>
+        <c:crossAx val="126729216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -492,7 +521,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -590,7 +619,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -949,7 +978,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1078,34 +1107,34 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="F7" t="s">
+      <c r="F7" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:10" ht="15.75" thickBot="1">
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1158,24 +1187,25 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="F14" s="4"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="5"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1">
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/samples/test_sample.xlsx
+++ b/data/samples/test_sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="540" windowWidth="20775" windowHeight="7620"/>
+    <workbookView xWindow="270" yWindow="540" windowWidth="20775" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_Data" sheetId="1" r:id="rId1"/>
@@ -425,6 +425,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,12 +440,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -483,24 +483,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="126729216"/>
-        <c:axId val="126812928"/>
+        <c:axId val="129497344"/>
+        <c:axId val="134238208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126729216"/>
+        <c:axId val="129497344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126812928"/>
+        <c:crossAx val="134238208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126812928"/>
+        <c:axId val="134238208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -508,7 +508,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126729216"/>
+        <c:crossAx val="129497344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -521,7 +521,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -547,11 +547,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sales_Data!$A$2:$A$5</c:f>
+              <c:f>Sales_Data!$B$1:$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Product A Product B Product C Product D</c:v>
+                  <c:v>Q1_Sales Q2_Sales Q3_Sales Q4_Sales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -619,7 +619,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -977,7 +977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -1113,13 +1113,13 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:10" ht="15.75" thickBot="1">
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10">
       <c r="F10" s="6" t="s">
@@ -1187,18 +1187,18 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1">
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1346,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>

--- a/data/samples/test_sample.xlsx
+++ b/data/samples/test_sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="540" windowWidth="20775" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="270" yWindow="540" windowWidth="20775" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_Data" sheetId="1" r:id="rId1"/>
@@ -456,6 +456,283 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales_Data!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales_Data!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Q1_Sales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2_Sales</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3_Sales</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4_Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales_Data!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales_Data!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales_Data!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Q1_Sales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2_Sales</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3_Sales</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4_Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales_Data!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales_Data!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales_Data!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Q1_Sales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2_Sales</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3_Sales</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4_Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales_Data!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales_Data!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales_Data!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Q1_Sales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2_Sales</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3_Sales</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4_Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales_Data!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="27894912"/>
+        <c:axId val="27896448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="27894912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="27896448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="27896448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="27894912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
@@ -483,24 +760,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="129497344"/>
-        <c:axId val="134238208"/>
+        <c:axId val="138445952"/>
+        <c:axId val="138447488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129497344"/>
+        <c:axId val="138445952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134238208"/>
+        <c:crossAx val="138447488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134238208"/>
+        <c:axId val="138447488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -508,7 +785,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129497344"/>
+        <c:crossAx val="138445952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -521,13 +798,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -619,13 +896,48 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -977,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1206,6 +1518,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1346,7 +1659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>

--- a/data/samples/test_sample.xlsx
+++ b/data/samples/test_sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="540" windowWidth="20775" windowHeight="7620"/>
+    <workbookView xWindow="270" yWindow="540" windowWidth="20775" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_Data" sheetId="1" r:id="rId1"/>
@@ -682,24 +682,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="27894912"/>
-        <c:axId val="27896448"/>
+        <c:axId val="114290048"/>
+        <c:axId val="101000320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="27894912"/>
+        <c:axId val="114290048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="27896448"/>
+        <c:crossAx val="101000320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27896448"/>
+        <c:axId val="101000320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -707,7 +707,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="27894912"/>
+        <c:crossAx val="114290048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -720,7 +720,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -760,24 +760,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="138445952"/>
-        <c:axId val="138447488"/>
+        <c:axId val="114246400"/>
+        <c:axId val="114247936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138445952"/>
+        <c:axId val="114246400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138447488"/>
+        <c:crossAx val="114247936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138447488"/>
+        <c:axId val="114247936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +785,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138445952"/>
+        <c:crossAx val="114246400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -798,7 +798,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -808,75 +808,275 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
     </c:view3D>
     <c:plotArea>
       <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sales_Data!$B$1:$E$1</c:f>
+              <c:f>Sales_Data!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Q1_Sales Q2_Sales Q3_Sales Q4_Sales</c:v>
+                  <c:v>Product A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:explosion val="25"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sales_Data!$A$2:$A$5</c:f>
+              <c:f>Sales_Data!$B$1:$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Product A</c:v>
+                  <c:v>Q1_Sales</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Product B</c:v>
+                  <c:v>Q2_Sales</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Product C</c:v>
+                  <c:v>Q3_Sales</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Product D</c:v>
+                  <c:v>Q4_Sales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sales_Data!$G$2:$G$5</c:f>
+              <c:f>Sales_Data!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>157.5</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>195</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-      </c:pie3DChart>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales_Data!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales_Data!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Q1_Sales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2_Sales</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3_Sales</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4_Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales_Data!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales_Data!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales_Data!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Q1_Sales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2_Sales</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3_Sales</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4_Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales_Data!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales_Data!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales_Data!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Q1_Sales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2_Sales</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3_Sales</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4_Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales_Data!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="22498688"/>
+        <c:axId val="78240768"/>
+        <c:axId val="22690432"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="22498688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78240768"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78240768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="22498688"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="22690432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78240768"/>
+      </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -896,7 +1096,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1289,7 +1489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1659,7 +1859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>

--- a/data/samples/test_sample.xlsx
+++ b/data/samples/test_sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="540" windowWidth="20775" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="270" yWindow="540" windowWidth="20775" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_Data" sheetId="1" r:id="rId1"/>
@@ -182,9 +182,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -418,7 +415,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -440,6 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -682,24 +679,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="114290048"/>
-        <c:axId val="101000320"/>
+        <c:axId val="133754240"/>
+        <c:axId val="109388928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114290048"/>
+        <c:axId val="133754240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101000320"/>
+        <c:crossAx val="109388928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101000320"/>
+        <c:axId val="109388928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -707,20 +704,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114290048"/>
+        <c:crossAx val="133754240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -760,24 +756,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="114246400"/>
-        <c:axId val="114247936"/>
+        <c:axId val="133710592"/>
+        <c:axId val="133712128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114246400"/>
+        <c:axId val="133710592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114247936"/>
+        <c:crossAx val="133712128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114247936"/>
+        <c:axId val="133712128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +781,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114246400"/>
+        <c:crossAx val="133710592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -798,7 +794,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1040,24 +1036,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="22498688"/>
-        <c:axId val="78240768"/>
-        <c:axId val="22690432"/>
+        <c:axId val="134845952"/>
+        <c:axId val="134847488"/>
+        <c:axId val="134820288"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="22498688"/>
+        <c:axId val="134845952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78240768"/>
+        <c:crossAx val="134847488"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78240768"/>
+        <c:axId val="134847488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,17 +1062,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="22498688"/>
+        <c:crossAx val="134845952"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="22690432"/>
+        <c:axId val="134820288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78240768"/>
+        <c:crossAx val="134847488"/>
+        <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
@@ -1096,7 +1095,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1619,39 +1618,39 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:10" ht="15.75" thickBot="1">
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="2">
@@ -1664,10 +1663,10 @@
         <f>G11+H11</f>
         <v>65</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G12" s="2">
@@ -1680,10 +1679,10 @@
         <f t="shared" ref="I12:I13" si="0">G12+H12</f>
         <v>65</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="2">
@@ -1696,21 +1695,21 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1">
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1726,11 +1725,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1759,7 +1761,7 @@
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="18">
         <v>45306</v>
       </c>
       <c r="D2" s="2" t="b">
@@ -1779,7 +1781,7 @@
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="18">
         <v>45342</v>
       </c>
       <c r="D3" s="2" t="b">
@@ -1797,7 +1799,7 @@
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="18">
         <v>45361</v>
       </c>
       <c r="D4" s="2" t="b">
@@ -1817,7 +1819,7 @@
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="18">
         <v>45387</v>
       </c>
       <c r="D5" s="2" t="b">
@@ -1837,7 +1839,7 @@
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="18">
         <v>45424</v>
       </c>
       <c r="D6" s="2" t="b">
@@ -1859,7 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>

--- a/data/samples/test_sample.xlsx
+++ b/data/samples/test_sample.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="540" windowWidth="20775" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="270" yWindow="540" windowWidth="20775" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_Data" sheetId="1" r:id="rId1"/>
     <sheet name="Mixed_Data" sheetId="2" r:id="rId2"/>
     <sheet name="Summary" sheetId="3" r:id="rId3"/>
     <sheet name="Edge_Cases" sheetId="4" r:id="rId4"/>
+    <sheet name="возраст" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Product</t>
   </si>
@@ -176,6 +177,39 @@
   </si>
   <si>
     <t>Пуся</t>
+  </si>
+  <si>
+    <t>01.04.2025</t>
+  </si>
+  <si>
+    <t>10.04.2025</t>
+  </si>
+  <si>
+    <t>10.01.2025</t>
+  </si>
+  <si>
+    <t>27.04.2025</t>
+  </si>
+  <si>
+    <t>31.03.2025</t>
+  </si>
+  <si>
+    <t>18.05.2010</t>
+  </si>
+  <si>
+    <t>11.04.2025</t>
+  </si>
+  <si>
+    <t>25.12.2010</t>
+  </si>
+  <si>
+    <t>18.04.2025</t>
+  </si>
+  <si>
+    <t>25.02.2021</t>
+  </si>
+  <si>
+    <t>23.04.2025</t>
   </si>
 </sst>
 </file>
@@ -207,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +266,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -407,11 +447,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -427,6 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,12 +507,710 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="98">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00F0E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC9A6E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4FD1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5BFFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFACEDF0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00F0E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC9A6E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4FD1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5BFFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFACEDF0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00F0E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC9A6E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4FD1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5BFFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00F0E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC9A6E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4FD1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5BFFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFACEDF0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFACEDF0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00F0E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC9A6E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4FD1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5BFFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFACEDF0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00F0E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC9A6E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4FD1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5BFFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFACEDF0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00F0E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC9A6E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4FD1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5BFFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFACEDF0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -679,24 +1448,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="133754240"/>
-        <c:axId val="109388928"/>
+        <c:axId val="102423936"/>
+        <c:axId val="130684032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133754240"/>
+        <c:axId val="102423936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109388928"/>
+        <c:crossAx val="130684032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109388928"/>
+        <c:axId val="130684032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,7 +1473,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133754240"/>
+        <c:crossAx val="102423936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -716,7 +1485,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -756,24 +1525,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="133710592"/>
-        <c:axId val="133712128"/>
+        <c:axId val="130740992"/>
+        <c:axId val="130742528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133710592"/>
+        <c:axId val="130740992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133712128"/>
+        <c:crossAx val="130742528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133712128"/>
+        <c:axId val="130742528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,20 +1550,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133710592"/>
+        <c:crossAx val="130740992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1036,25 +1804,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="134845952"/>
-        <c:axId val="134847488"/>
-        <c:axId val="134820288"/>
+        <c:axId val="130778624"/>
+        <c:axId val="130780160"/>
+        <c:axId val="130757056"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="134845952"/>
+        <c:axId val="130778624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134847488"/>
+        <c:crossAx val="130780160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134847488"/>
+        <c:axId val="130780160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1062,24 +1830,23 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134845952"/>
+        <c:crossAx val="130778624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="134820288"/>
+        <c:axId val="130757056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134847488"/>
+        <c:crossAx val="130780160"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1095,7 +1862,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1624,13 +2391,13 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:10" ht="15.75" thickBot="1">
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10">
       <c r="F10" s="5" t="s">
@@ -1725,7 +2492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
@@ -1761,7 +2528,7 @@
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="15">
         <v>45306</v>
       </c>
       <c r="D2" s="2" t="b">
@@ -1781,7 +2548,7 @@
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="15">
         <v>45342</v>
       </c>
       <c r="D3" s="2" t="b">
@@ -1799,7 +2566,7 @@
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="15">
         <v>45361</v>
       </c>
       <c r="D4" s="2" t="b">
@@ -1819,7 +2586,7 @@
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="15">
         <v>45387</v>
       </c>
       <c r="D5" s="2" t="b">
@@ -1839,7 +2606,7 @@
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="15">
         <v>45424</v>
       </c>
       <c r="D6" s="2" t="b">
@@ -2029,4 +2796,156 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="e">
+        <f t="shared" ref="E4:E9" ca="1" si="0">TRIM(_xlfn.CONCAT(IF(DATEDIF(A4,C4,"y")=0,"",DATEDIF(A4,C4,"y")),IF(OR(RIGHT(DATEDIF(A4,C4,"y"),1)="5",RIGHT(DATEDIF(A4,C4,"y"),1)="6",RIGHT(DATEDIF(A4,C4,"y"),1)="7",RIGHT(DATEDIF(A4,C4,"y"),1)="8",RIGHT(DATEDIF(A4,C4,"y"),1)="9",OR(RIGHT(DATEDIF(A4,C4,"y"),2)="10",RIGHT(DATEDIF(A4,C4,"y"),2)="20",RIGHT(DATEDIF(A4,C4,"y"),2)="30",RIGHT(DATEDIF(A4,C4,"y"),2)="40",RIGHT(DATEDIF(A4,C4,"y"),2)="50",RIGHT(DATEDIF(A4,C4,"y"),2)="60",RIGHT(DATEDIF(A4,C4,"y"),2)="70",RIGHT(DATEDIF(A4,C4,"y"),2)="80",RIGHT(DATEDIF(A4,C4,"y"),2)="90",RIGHT(DATEDIF(A4,C4,"y"),2)="00"),RIGHT(DATEDIF(A4,C4,"y"),2)="11",RIGHT(DATEDIF(A4,C4,"y"),2)="12",RIGHT(DATEDIF(A4,C4,"y"),2)="13",RIGHT(DATEDIF(A4,C4,"y"),2)="14")," лет",IF(OR(RIGHT(DATEDIF(A4,C4,"y"),1)="2",RIGHT(DATEDIF(A4,C4,"y"),1)="3",RIGHT(DATEDIF(A4,C4,"y"),1)="4")," года",IF(RIGHT(DATEDIF(A4,C4,"y"),1)="0",""," год"))),IF(DATEDIF(A4,C4,"ym")=0,"",_xlfn.CONCAT(" ",DATEDIF(A4,C4,"ym"))),IF(OR(RIGHT(DATEDIF(A4,C4,"ym"),1)="5",RIGHT(DATEDIF(A4,C4,"ym"),1)="6",RIGHT(DATEDIF(A4,C4,"ym"),1)="7",RIGHT(DATEDIF(A4,C4,"ym"),1)="8",RIGHT(DATEDIF(A4,C4,"ym"),1)="9",RIGHT(DATEDIF(A4,C4,"ym"),2)="10",RIGHT(DATEDIF(A4,C4,"ym"),2)="11",RIGHT(DATEDIF(A4,C4,"ym"),2)="12")," месяцев",IF(OR(RIGHT(DATEDIF(A4,C4,"ym"),1)="2",RIGHT(DATEDIF(A4,C4,"ym"),1)="3",RIGHT(DATEDIF(A4,C4,"ym"),1)="4")," месяца",IF(RIGHT(DATEDIF(A4,C4,"ym"),1)="0",""," месяц"))),IF(DATEDIF(A4,C4,"md")=0,"",_xlfn.CONCAT(" ",DATEDIF(A4,C4,"md"))),IF(OR(RIGHT(DATEDIF(A4,C4,"md"),1)="5",RIGHT(DATEDIF(A4,C4,"md"),1)="6",RIGHT(DATEDIF(A4,C4,"md"),1)="7",RIGHT(DATEDIF(A4,C4,"md"),1)="8",RIGHT(DATEDIF(A4,C4,"md"),1)="9",OR(RIGHT(DATEDIF(A4,C4,"md"),2)="10",RIGHT(DATEDIF(A4,C4,"md"),2)="20",RIGHT(DATEDIF(A4,C4,"md"),2)="30"),RIGHT(DATEDIF(A4,C4,"md"),2)="11",RIGHT(DATEDIF(A4,C4,"md"),2)="12",RIGHT(DATEDIF(A4,C4,"md"),2)="13",RIGHT(DATEDIF(A4,C4,"md"),2)="14")," дней",IF(OR(RIGHT(DATEDIF(A4,C4,"md"),1)="2",RIGHT(DATEDIF(A4,C4,"md"),1)="3",RIGHT(DATEDIF(A4,C4,"md"),1)="4")," дня",IF(RIGHT(DATEDIF(A4,C4,"md"),1)="0",""," день")))))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E4:E9">
+    <cfRule type="expression" dxfId="55" priority="14">
+      <formula>$L4="Курганская область"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E9">
+    <cfRule type="expression" dxfId="53" priority="2">
+      <formula>$L4="Свердловская область"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="3">
+      <formula>$L4="Амурская область"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="4">
+      <formula>$L4="Республика Бурятия"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="5">
+      <formula>$L4="Еврейская автономная область"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="6">
+      <formula>$L4="Забайкальский край"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="7">
+      <formula>$L4="Камчатский край"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="8">
+      <formula>$L4="Магаданская область"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="9">
+      <formula>$L4="Приморский край"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="10">
+      <formula>$L4="Республика Саха (Якутия)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="11">
+      <formula>$L4="Хабаровский край"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="12">
+      <formula>$L4="Чукотский автономный округ"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="13">
+      <formula>$L4="Сахалинская область"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E9">
+    <cfRule type="expression" dxfId="29" priority="1">
+      <formula>$L4="Оренбургская область"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/samples/test_sample.xlsx
+++ b/data/samples/test_sample.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Product</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>23.04.2025</t>
+  </si>
+  <si>
+    <t>Дата один</t>
+  </si>
+  <si>
+    <t>Дата 2</t>
+  </si>
+  <si>
+    <t>Возраст</t>
   </si>
 </sst>
 </file>
@@ -273,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -447,41 +456,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -507,611 +486,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="98">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00F0E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC9A6E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4FD1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5BFFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFACEDF0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00F0E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC9A6E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4FD1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5BFFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFACEDF0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00F0E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC9A6E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4FD1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5BFFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00F0E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC9A6E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4FD1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5BFFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFACEDF0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFACEDF0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00F0E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC9A6E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4FD1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5BFFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFACEDF0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00F0E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC9A6E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4FD1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5BFFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFACEDF0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -1448,24 +836,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="102423936"/>
-        <c:axId val="130684032"/>
+        <c:axId val="139964800"/>
+        <c:axId val="139966336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102423936"/>
+        <c:axId val="139964800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130684032"/>
+        <c:crossAx val="139966336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130684032"/>
+        <c:axId val="139966336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,7 +861,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102423936"/>
+        <c:crossAx val="139964800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1485,7 +873,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1525,24 +913,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="130740992"/>
-        <c:axId val="130742528"/>
+        <c:axId val="140080640"/>
+        <c:axId val="140082176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130740992"/>
+        <c:axId val="140080640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130742528"/>
+        <c:crossAx val="140082176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130742528"/>
+        <c:axId val="140082176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,7 +938,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130740992"/>
+        <c:crossAx val="140080640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1562,7 +950,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1804,25 +1192,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="130778624"/>
-        <c:axId val="130780160"/>
-        <c:axId val="130757056"/>
+        <c:axId val="140101888"/>
+        <c:axId val="140132352"/>
+        <c:axId val="139582528"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="130778624"/>
+        <c:axId val="140101888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130780160"/>
+        <c:crossAx val="140132352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130780160"/>
+        <c:axId val="140132352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1830,18 +1218,18 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130778624"/>
+        <c:crossAx val="140101888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="130757056"/>
+        <c:axId val="139582528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130780160"/>
+        <c:crossAx val="140132352"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -1862,7 +1250,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2800,152 +2188,157 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:E9"/>
+  <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="30">
+    <row r="2" spans="1:3">
+      <c r="A2" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="e">
-        <f t="shared" ref="E4:E9" ca="1" si="0">TRIM(_xlfn.CONCAT(IF(DATEDIF(A4,C4,"y")=0,"",DATEDIF(A4,C4,"y")),IF(OR(RIGHT(DATEDIF(A4,C4,"y"),1)="5",RIGHT(DATEDIF(A4,C4,"y"),1)="6",RIGHT(DATEDIF(A4,C4,"y"),1)="7",RIGHT(DATEDIF(A4,C4,"y"),1)="8",RIGHT(DATEDIF(A4,C4,"y"),1)="9",OR(RIGHT(DATEDIF(A4,C4,"y"),2)="10",RIGHT(DATEDIF(A4,C4,"y"),2)="20",RIGHT(DATEDIF(A4,C4,"y"),2)="30",RIGHT(DATEDIF(A4,C4,"y"),2)="40",RIGHT(DATEDIF(A4,C4,"y"),2)="50",RIGHT(DATEDIF(A4,C4,"y"),2)="60",RIGHT(DATEDIF(A4,C4,"y"),2)="70",RIGHT(DATEDIF(A4,C4,"y"),2)="80",RIGHT(DATEDIF(A4,C4,"y"),2)="90",RIGHT(DATEDIF(A4,C4,"y"),2)="00"),RIGHT(DATEDIF(A4,C4,"y"),2)="11",RIGHT(DATEDIF(A4,C4,"y"),2)="12",RIGHT(DATEDIF(A4,C4,"y"),2)="13",RIGHT(DATEDIF(A4,C4,"y"),2)="14")," лет",IF(OR(RIGHT(DATEDIF(A4,C4,"y"),1)="2",RIGHT(DATEDIF(A4,C4,"y"),1)="3",RIGHT(DATEDIF(A4,C4,"y"),1)="4")," года",IF(RIGHT(DATEDIF(A4,C4,"y"),1)="0",""," год"))),IF(DATEDIF(A4,C4,"ym")=0,"",_xlfn.CONCAT(" ",DATEDIF(A4,C4,"ym"))),IF(OR(RIGHT(DATEDIF(A4,C4,"ym"),1)="5",RIGHT(DATEDIF(A4,C4,"ym"),1)="6",RIGHT(DATEDIF(A4,C4,"ym"),1)="7",RIGHT(DATEDIF(A4,C4,"ym"),1)="8",RIGHT(DATEDIF(A4,C4,"ym"),1)="9",RIGHT(DATEDIF(A4,C4,"ym"),2)="10",RIGHT(DATEDIF(A4,C4,"ym"),2)="11",RIGHT(DATEDIF(A4,C4,"ym"),2)="12")," месяцев",IF(OR(RIGHT(DATEDIF(A4,C4,"ym"),1)="2",RIGHT(DATEDIF(A4,C4,"ym"),1)="3",RIGHT(DATEDIF(A4,C4,"ym"),1)="4")," месяца",IF(RIGHT(DATEDIF(A4,C4,"ym"),1)="0",""," месяц"))),IF(DATEDIF(A4,C4,"md")=0,"",_xlfn.CONCAT(" ",DATEDIF(A4,C4,"md"))),IF(OR(RIGHT(DATEDIF(A4,C4,"md"),1)="5",RIGHT(DATEDIF(A4,C4,"md"),1)="6",RIGHT(DATEDIF(A4,C4,"md"),1)="7",RIGHT(DATEDIF(A4,C4,"md"),1)="8",RIGHT(DATEDIF(A4,C4,"md"),1)="9",OR(RIGHT(DATEDIF(A4,C4,"md"),2)="10",RIGHT(DATEDIF(A4,C4,"md"),2)="20",RIGHT(DATEDIF(A4,C4,"md"),2)="30"),RIGHT(DATEDIF(A4,C4,"md"),2)="11",RIGHT(DATEDIF(A4,C4,"md"),2)="12",RIGHT(DATEDIF(A4,C4,"md"),2)="13",RIGHT(DATEDIF(A4,C4,"md"),2)="14")," дней",IF(OR(RIGHT(DATEDIF(A4,C4,"md"),1)="2",RIGHT(DATEDIF(A4,C4,"md"),1)="3",RIGHT(DATEDIF(A4,C4,"md"),1)="4")," дня",IF(RIGHT(DATEDIF(A4,C4,"md"),1)="0",""," день")))))</f>
+      <c r="C4" s="20" t="e">
+        <f ca="1">TRIM(_xlfn.CONCAT(IF(DATEDIF(A4,B4,"y")=0,"",DATEDIF(A4,B4,"y")),IF(OR(RIGHT(DATEDIF(A4,B4,"y"),1)="5",RIGHT(DATEDIF(A4,B4,"y"),1)="6",RIGHT(DATEDIF(A4,B4,"y"),1)="7",RIGHT(DATEDIF(A4,B4,"y"),1)="8",RIGHT(DATEDIF(A4,B4,"y"),1)="9",OR(RIGHT(DATEDIF(A4,B4,"y"),2)="10",RIGHT(DATEDIF(A4,B4,"y"),2)="20",RIGHT(DATEDIF(A4,B4,"y"),2)="30",RIGHT(DATEDIF(A4,B4,"y"),2)="40",RIGHT(DATEDIF(A4,B4,"y"),2)="50",RIGHT(DATEDIF(A4,B4,"y"),2)="60",RIGHT(DATEDIF(A4,B4,"y"),2)="70",RIGHT(DATEDIF(A4,B4,"y"),2)="80",RIGHT(DATEDIF(A4,B4,"y"),2)="90",RIGHT(DATEDIF(A4,B4,"y"),2)="00"),RIGHT(DATEDIF(A4,B4,"y"),2)="11",RIGHT(DATEDIF(A4,B4,"y"),2)="12",RIGHT(DATEDIF(A4,B4,"y"),2)="13",RIGHT(DATEDIF(A4,B4,"y"),2)="14")," лет",IF(OR(RIGHT(DATEDIF(A4,B4,"y"),1)="2",RIGHT(DATEDIF(A4,B4,"y"),1)="3",RIGHT(DATEDIF(A4,B4,"y"),1)="4")," года",IF(RIGHT(DATEDIF(A4,B4,"y"),1)="0",""," год"))),IF(DATEDIF(A4,B4,"ym")=0,"",_xlfn.CONCAT(" ",DATEDIF(A4,B4,"ym"))),IF(OR(RIGHT(DATEDIF(A4,B4,"ym"),1)="5",RIGHT(DATEDIF(A4,B4,"ym"),1)="6",RIGHT(DATEDIF(A4,B4,"ym"),1)="7",RIGHT(DATEDIF(A4,B4,"ym"),1)="8",RIGHT(DATEDIF(A4,B4,"ym"),1)="9",RIGHT(DATEDIF(A4,B4,"ym"),2)="10",RIGHT(DATEDIF(A4,B4,"ym"),2)="11",RIGHT(DATEDIF(A4,B4,"ym"),2)="12")," месяцев",IF(OR(RIGHT(DATEDIF(A4,B4,"ym"),1)="2",RIGHT(DATEDIF(A4,B4,"ym"),1)="3",RIGHT(DATEDIF(A4,B4,"ym"),1)="4")," месяца",IF(RIGHT(DATEDIF(A4,B4,"ym"),1)="0",""," месяц"))),IF(DATEDIF(A4,B4,"md")=0,"",_xlfn.CONCAT(" ",DATEDIF(A4,B4,"md"))),IF(OR(RIGHT(DATEDIF(A4,B4,"md"),1)="5",RIGHT(DATEDIF(A4,B4,"md"),1)="6",RIGHT(DATEDIF(A4,B4,"md"),1)="7",RIGHT(DATEDIF(A4,B4,"md"),1)="8",RIGHT(DATEDIF(A4,B4,"md"),1)="9",OR(RIGHT(DATEDIF(A4,B4,"md"),2)="10",RIGHT(DATEDIF(A4,B4,"md"),2)="20",RIGHT(DATEDIF(A4,B4,"md"),2)="30"),RIGHT(DATEDIF(A4,B4,"md"),2)="11",RIGHT(DATEDIF(A4,B4,"md"),2)="12",RIGHT(DATEDIF(A4,B4,"md"),2)="13",RIGHT(DATEDIF(A4,B4,"md"),2)="14")," дней",IF(OR(RIGHT(DATEDIF(A4,B4,"md"),1)="2",RIGHT(DATEDIF(A4,B4,"md"),1)="3",RIGHT(DATEDIF(A4,B4,"md"),1)="4")," дня",IF(RIGHT(DATEDIF(A4,B4,"md"),1)="0",""," день")))))</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22" t="e">
-        <f t="shared" ca="1" si="0"/>
+      <c r="C5" s="20" t="e">
+        <f ca="1">TRIM(_xlfn.CONCAT(IF(DATEDIF(A5,B5,"y")=0,"",DATEDIF(A5,B5,"y")),IF(OR(RIGHT(DATEDIF(A5,B5,"y"),1)="5",RIGHT(DATEDIF(A5,B5,"y"),1)="6",RIGHT(DATEDIF(A5,B5,"y"),1)="7",RIGHT(DATEDIF(A5,B5,"y"),1)="8",RIGHT(DATEDIF(A5,B5,"y"),1)="9",OR(RIGHT(DATEDIF(A5,B5,"y"),2)="10",RIGHT(DATEDIF(A5,B5,"y"),2)="20",RIGHT(DATEDIF(A5,B5,"y"),2)="30",RIGHT(DATEDIF(A5,B5,"y"),2)="40",RIGHT(DATEDIF(A5,B5,"y"),2)="50",RIGHT(DATEDIF(A5,B5,"y"),2)="60",RIGHT(DATEDIF(A5,B5,"y"),2)="70",RIGHT(DATEDIF(A5,B5,"y"),2)="80",RIGHT(DATEDIF(A5,B5,"y"),2)="90",RIGHT(DATEDIF(A5,B5,"y"),2)="00"),RIGHT(DATEDIF(A5,B5,"y"),2)="11",RIGHT(DATEDIF(A5,B5,"y"),2)="12",RIGHT(DATEDIF(A5,B5,"y"),2)="13",RIGHT(DATEDIF(A5,B5,"y"),2)="14")," лет",IF(OR(RIGHT(DATEDIF(A5,B5,"y"),1)="2",RIGHT(DATEDIF(A5,B5,"y"),1)="3",RIGHT(DATEDIF(A5,B5,"y"),1)="4")," года",IF(RIGHT(DATEDIF(A5,B5,"y"),1)="0",""," год"))),IF(DATEDIF(A5,B5,"ym")=0,"",_xlfn.CONCAT(" ",DATEDIF(A5,B5,"ym"))),IF(OR(RIGHT(DATEDIF(A5,B5,"ym"),1)="5",RIGHT(DATEDIF(A5,B5,"ym"),1)="6",RIGHT(DATEDIF(A5,B5,"ym"),1)="7",RIGHT(DATEDIF(A5,B5,"ym"),1)="8",RIGHT(DATEDIF(A5,B5,"ym"),1)="9",RIGHT(DATEDIF(A5,B5,"ym"),2)="10",RIGHT(DATEDIF(A5,B5,"ym"),2)="11",RIGHT(DATEDIF(A5,B5,"ym"),2)="12")," месяцев",IF(OR(RIGHT(DATEDIF(A5,B5,"ym"),1)="2",RIGHT(DATEDIF(A5,B5,"ym"),1)="3",RIGHT(DATEDIF(A5,B5,"ym"),1)="4")," месяца",IF(RIGHT(DATEDIF(A5,B5,"ym"),1)="0",""," месяц"))),IF(DATEDIF(A5,B5,"md")=0,"",_xlfn.CONCAT(" ",DATEDIF(A5,B5,"md"))),IF(OR(RIGHT(DATEDIF(A5,B5,"md"),1)="5",RIGHT(DATEDIF(A5,B5,"md"),1)="6",RIGHT(DATEDIF(A5,B5,"md"),1)="7",RIGHT(DATEDIF(A5,B5,"md"),1)="8",RIGHT(DATEDIF(A5,B5,"md"),1)="9",OR(RIGHT(DATEDIF(A5,B5,"md"),2)="10",RIGHT(DATEDIF(A5,B5,"md"),2)="20",RIGHT(DATEDIF(A5,B5,"md"),2)="30"),RIGHT(DATEDIF(A5,B5,"md"),2)="11",RIGHT(DATEDIF(A5,B5,"md"),2)="12",RIGHT(DATEDIF(A5,B5,"md"),2)="13",RIGHT(DATEDIF(A5,B5,"md"),2)="14")," дней",IF(OR(RIGHT(DATEDIF(A5,B5,"md"),1)="2",RIGHT(DATEDIF(A5,B5,"md"),1)="3",RIGHT(DATEDIF(A5,B5,"md"),1)="4")," дня",IF(RIGHT(DATEDIF(A5,B5,"md"),1)="0",""," день")))))</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22" t="e">
-        <f t="shared" ca="1" si="0"/>
+      <c r="C6" s="20" t="e">
+        <f ca="1">TRIM(_xlfn.CONCAT(IF(DATEDIF(A6,B6,"y")=0,"",DATEDIF(A6,B6,"y")),IF(OR(RIGHT(DATEDIF(A6,B6,"y"),1)="5",RIGHT(DATEDIF(A6,B6,"y"),1)="6",RIGHT(DATEDIF(A6,B6,"y"),1)="7",RIGHT(DATEDIF(A6,B6,"y"),1)="8",RIGHT(DATEDIF(A6,B6,"y"),1)="9",OR(RIGHT(DATEDIF(A6,B6,"y"),2)="10",RIGHT(DATEDIF(A6,B6,"y"),2)="20",RIGHT(DATEDIF(A6,B6,"y"),2)="30",RIGHT(DATEDIF(A6,B6,"y"),2)="40",RIGHT(DATEDIF(A6,B6,"y"),2)="50",RIGHT(DATEDIF(A6,B6,"y"),2)="60",RIGHT(DATEDIF(A6,B6,"y"),2)="70",RIGHT(DATEDIF(A6,B6,"y"),2)="80",RIGHT(DATEDIF(A6,B6,"y"),2)="90",RIGHT(DATEDIF(A6,B6,"y"),2)="00"),RIGHT(DATEDIF(A6,B6,"y"),2)="11",RIGHT(DATEDIF(A6,B6,"y"),2)="12",RIGHT(DATEDIF(A6,B6,"y"),2)="13",RIGHT(DATEDIF(A6,B6,"y"),2)="14")," лет",IF(OR(RIGHT(DATEDIF(A6,B6,"y"),1)="2",RIGHT(DATEDIF(A6,B6,"y"),1)="3",RIGHT(DATEDIF(A6,B6,"y"),1)="4")," года",IF(RIGHT(DATEDIF(A6,B6,"y"),1)="0",""," год"))),IF(DATEDIF(A6,B6,"ym")=0,"",_xlfn.CONCAT(" ",DATEDIF(A6,B6,"ym"))),IF(OR(RIGHT(DATEDIF(A6,B6,"ym"),1)="5",RIGHT(DATEDIF(A6,B6,"ym"),1)="6",RIGHT(DATEDIF(A6,B6,"ym"),1)="7",RIGHT(DATEDIF(A6,B6,"ym"),1)="8",RIGHT(DATEDIF(A6,B6,"ym"),1)="9",RIGHT(DATEDIF(A6,B6,"ym"),2)="10",RIGHT(DATEDIF(A6,B6,"ym"),2)="11",RIGHT(DATEDIF(A6,B6,"ym"),2)="12")," месяцев",IF(OR(RIGHT(DATEDIF(A6,B6,"ym"),1)="2",RIGHT(DATEDIF(A6,B6,"ym"),1)="3",RIGHT(DATEDIF(A6,B6,"ym"),1)="4")," месяца",IF(RIGHT(DATEDIF(A6,B6,"ym"),1)="0",""," месяц"))),IF(DATEDIF(A6,B6,"md")=0,"",_xlfn.CONCAT(" ",DATEDIF(A6,B6,"md"))),IF(OR(RIGHT(DATEDIF(A6,B6,"md"),1)="5",RIGHT(DATEDIF(A6,B6,"md"),1)="6",RIGHT(DATEDIF(A6,B6,"md"),1)="7",RIGHT(DATEDIF(A6,B6,"md"),1)="8",RIGHT(DATEDIF(A6,B6,"md"),1)="9",OR(RIGHT(DATEDIF(A6,B6,"md"),2)="10",RIGHT(DATEDIF(A6,B6,"md"),2)="20",RIGHT(DATEDIF(A6,B6,"md"),2)="30"),RIGHT(DATEDIF(A6,B6,"md"),2)="11",RIGHT(DATEDIF(A6,B6,"md"),2)="12",RIGHT(DATEDIF(A6,B6,"md"),2)="13",RIGHT(DATEDIF(A6,B6,"md"),2)="14")," дней",IF(OR(RIGHT(DATEDIF(A6,B6,"md"),1)="2",RIGHT(DATEDIF(A6,B6,"md"),1)="3",RIGHT(DATEDIF(A6,B6,"md"),1)="4")," дня",IF(RIGHT(DATEDIF(A6,B6,"md"),1)="0",""," день")))))</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="e">
-        <f t="shared" ca="1" si="0"/>
+      <c r="C7" s="20" t="e">
+        <f ca="1">TRIM(_xlfn.CONCAT(IF(DATEDIF(A7,B7,"y")=0,"",DATEDIF(A7,B7,"y")),IF(OR(RIGHT(DATEDIF(A7,B7,"y"),1)="5",RIGHT(DATEDIF(A7,B7,"y"),1)="6",RIGHT(DATEDIF(A7,B7,"y"),1)="7",RIGHT(DATEDIF(A7,B7,"y"),1)="8",RIGHT(DATEDIF(A7,B7,"y"),1)="9",OR(RIGHT(DATEDIF(A7,B7,"y"),2)="10",RIGHT(DATEDIF(A7,B7,"y"),2)="20",RIGHT(DATEDIF(A7,B7,"y"),2)="30",RIGHT(DATEDIF(A7,B7,"y"),2)="40",RIGHT(DATEDIF(A7,B7,"y"),2)="50",RIGHT(DATEDIF(A7,B7,"y"),2)="60",RIGHT(DATEDIF(A7,B7,"y"),2)="70",RIGHT(DATEDIF(A7,B7,"y"),2)="80",RIGHT(DATEDIF(A7,B7,"y"),2)="90",RIGHT(DATEDIF(A7,B7,"y"),2)="00"),RIGHT(DATEDIF(A7,B7,"y"),2)="11",RIGHT(DATEDIF(A7,B7,"y"),2)="12",RIGHT(DATEDIF(A7,B7,"y"),2)="13",RIGHT(DATEDIF(A7,B7,"y"),2)="14")," лет",IF(OR(RIGHT(DATEDIF(A7,B7,"y"),1)="2",RIGHT(DATEDIF(A7,B7,"y"),1)="3",RIGHT(DATEDIF(A7,B7,"y"),1)="4")," года",IF(RIGHT(DATEDIF(A7,B7,"y"),1)="0",""," год"))),IF(DATEDIF(A7,B7,"ym")=0,"",_xlfn.CONCAT(" ",DATEDIF(A7,B7,"ym"))),IF(OR(RIGHT(DATEDIF(A7,B7,"ym"),1)="5",RIGHT(DATEDIF(A7,B7,"ym"),1)="6",RIGHT(DATEDIF(A7,B7,"ym"),1)="7",RIGHT(DATEDIF(A7,B7,"ym"),1)="8",RIGHT(DATEDIF(A7,B7,"ym"),1)="9",RIGHT(DATEDIF(A7,B7,"ym"),2)="10",RIGHT(DATEDIF(A7,B7,"ym"),2)="11",RIGHT(DATEDIF(A7,B7,"ym"),2)="12")," месяцев",IF(OR(RIGHT(DATEDIF(A7,B7,"ym"),1)="2",RIGHT(DATEDIF(A7,B7,"ym"),1)="3",RIGHT(DATEDIF(A7,B7,"ym"),1)="4")," месяца",IF(RIGHT(DATEDIF(A7,B7,"ym"),1)="0",""," месяц"))),IF(DATEDIF(A7,B7,"md")=0,"",_xlfn.CONCAT(" ",DATEDIF(A7,B7,"md"))),IF(OR(RIGHT(DATEDIF(A7,B7,"md"),1)="5",RIGHT(DATEDIF(A7,B7,"md"),1)="6",RIGHT(DATEDIF(A7,B7,"md"),1)="7",RIGHT(DATEDIF(A7,B7,"md"),1)="8",RIGHT(DATEDIF(A7,B7,"md"),1)="9",OR(RIGHT(DATEDIF(A7,B7,"md"),2)="10",RIGHT(DATEDIF(A7,B7,"md"),2)="20",RIGHT(DATEDIF(A7,B7,"md"),2)="30"),RIGHT(DATEDIF(A7,B7,"md"),2)="11",RIGHT(DATEDIF(A7,B7,"md"),2)="12",RIGHT(DATEDIF(A7,B7,"md"),2)="13",RIGHT(DATEDIF(A7,B7,"md"),2)="14")," дней",IF(OR(RIGHT(DATEDIF(A7,B7,"md"),1)="2",RIGHT(DATEDIF(A7,B7,"md"),1)="3",RIGHT(DATEDIF(A7,B7,"md"),1)="4")," дня",IF(RIGHT(DATEDIF(A7,B7,"md"),1)="0",""," день")))))</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22" t="e">
-        <f t="shared" ca="1" si="0"/>
+      <c r="C8" s="20" t="e">
+        <f ca="1">TRIM(_xlfn.CONCAT(IF(DATEDIF(A8,B8,"y")=0,"",DATEDIF(A8,B8,"y")),IF(OR(RIGHT(DATEDIF(A8,B8,"y"),1)="5",RIGHT(DATEDIF(A8,B8,"y"),1)="6",RIGHT(DATEDIF(A8,B8,"y"),1)="7",RIGHT(DATEDIF(A8,B8,"y"),1)="8",RIGHT(DATEDIF(A8,B8,"y"),1)="9",OR(RIGHT(DATEDIF(A8,B8,"y"),2)="10",RIGHT(DATEDIF(A8,B8,"y"),2)="20",RIGHT(DATEDIF(A8,B8,"y"),2)="30",RIGHT(DATEDIF(A8,B8,"y"),2)="40",RIGHT(DATEDIF(A8,B8,"y"),2)="50",RIGHT(DATEDIF(A8,B8,"y"),2)="60",RIGHT(DATEDIF(A8,B8,"y"),2)="70",RIGHT(DATEDIF(A8,B8,"y"),2)="80",RIGHT(DATEDIF(A8,B8,"y"),2)="90",RIGHT(DATEDIF(A8,B8,"y"),2)="00"),RIGHT(DATEDIF(A8,B8,"y"),2)="11",RIGHT(DATEDIF(A8,B8,"y"),2)="12",RIGHT(DATEDIF(A8,B8,"y"),2)="13",RIGHT(DATEDIF(A8,B8,"y"),2)="14")," лет",IF(OR(RIGHT(DATEDIF(A8,B8,"y"),1)="2",RIGHT(DATEDIF(A8,B8,"y"),1)="3",RIGHT(DATEDIF(A8,B8,"y"),1)="4")," года",IF(RIGHT(DATEDIF(A8,B8,"y"),1)="0",""," год"))),IF(DATEDIF(A8,B8,"ym")=0,"",_xlfn.CONCAT(" ",DATEDIF(A8,B8,"ym"))),IF(OR(RIGHT(DATEDIF(A8,B8,"ym"),1)="5",RIGHT(DATEDIF(A8,B8,"ym"),1)="6",RIGHT(DATEDIF(A8,B8,"ym"),1)="7",RIGHT(DATEDIF(A8,B8,"ym"),1)="8",RIGHT(DATEDIF(A8,B8,"ym"),1)="9",RIGHT(DATEDIF(A8,B8,"ym"),2)="10",RIGHT(DATEDIF(A8,B8,"ym"),2)="11",RIGHT(DATEDIF(A8,B8,"ym"),2)="12")," месяцев",IF(OR(RIGHT(DATEDIF(A8,B8,"ym"),1)="2",RIGHT(DATEDIF(A8,B8,"ym"),1)="3",RIGHT(DATEDIF(A8,B8,"ym"),1)="4")," месяца",IF(RIGHT(DATEDIF(A8,B8,"ym"),1)="0",""," месяц"))),IF(DATEDIF(A8,B8,"md")=0,"",_xlfn.CONCAT(" ",DATEDIF(A8,B8,"md"))),IF(OR(RIGHT(DATEDIF(A8,B8,"md"),1)="5",RIGHT(DATEDIF(A8,B8,"md"),1)="6",RIGHT(DATEDIF(A8,B8,"md"),1)="7",RIGHT(DATEDIF(A8,B8,"md"),1)="8",RIGHT(DATEDIF(A8,B8,"md"),1)="9",OR(RIGHT(DATEDIF(A8,B8,"md"),2)="10",RIGHT(DATEDIF(A8,B8,"md"),2)="20",RIGHT(DATEDIF(A8,B8,"md"),2)="30"),RIGHT(DATEDIF(A8,B8,"md"),2)="11",RIGHT(DATEDIF(A8,B8,"md"),2)="12",RIGHT(DATEDIF(A8,B8,"md"),2)="13",RIGHT(DATEDIF(A8,B8,"md"),2)="14")," дней",IF(OR(RIGHT(DATEDIF(A8,B8,"md"),1)="2",RIGHT(DATEDIF(A8,B8,"md"),1)="3",RIGHT(DATEDIF(A8,B8,"md"),1)="4")," дня",IF(RIGHT(DATEDIF(A8,B8,"md"),1)="0",""," день")))))</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30">
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22" t="e">
-        <f t="shared" ca="1" si="0"/>
+      <c r="C9" s="20" t="e">
+        <f ca="1">TRIM(_xlfn.CONCAT(IF(DATEDIF(A9,B9,"y")=0,"",DATEDIF(A9,B9,"y")),IF(OR(RIGHT(DATEDIF(A9,B9,"y"),1)="5",RIGHT(DATEDIF(A9,B9,"y"),1)="6",RIGHT(DATEDIF(A9,B9,"y"),1)="7",RIGHT(DATEDIF(A9,B9,"y"),1)="8",RIGHT(DATEDIF(A9,B9,"y"),1)="9",OR(RIGHT(DATEDIF(A9,B9,"y"),2)="10",RIGHT(DATEDIF(A9,B9,"y"),2)="20",RIGHT(DATEDIF(A9,B9,"y"),2)="30",RIGHT(DATEDIF(A9,B9,"y"),2)="40",RIGHT(DATEDIF(A9,B9,"y"),2)="50",RIGHT(DATEDIF(A9,B9,"y"),2)="60",RIGHT(DATEDIF(A9,B9,"y"),2)="70",RIGHT(DATEDIF(A9,B9,"y"),2)="80",RIGHT(DATEDIF(A9,B9,"y"),2)="90",RIGHT(DATEDIF(A9,B9,"y"),2)="00"),RIGHT(DATEDIF(A9,B9,"y"),2)="11",RIGHT(DATEDIF(A9,B9,"y"),2)="12",RIGHT(DATEDIF(A9,B9,"y"),2)="13",RIGHT(DATEDIF(A9,B9,"y"),2)="14")," лет",IF(OR(RIGHT(DATEDIF(A9,B9,"y"),1)="2",RIGHT(DATEDIF(A9,B9,"y"),1)="3",RIGHT(DATEDIF(A9,B9,"y"),1)="4")," года",IF(RIGHT(DATEDIF(A9,B9,"y"),1)="0",""," год"))),IF(DATEDIF(A9,B9,"ym")=0,"",_xlfn.CONCAT(" ",DATEDIF(A9,B9,"ym"))),IF(OR(RIGHT(DATEDIF(A9,B9,"ym"),1)="5",RIGHT(DATEDIF(A9,B9,"ym"),1)="6",RIGHT(DATEDIF(A9,B9,"ym"),1)="7",RIGHT(DATEDIF(A9,B9,"ym"),1)="8",RIGHT(DATEDIF(A9,B9,"ym"),1)="9",RIGHT(DATEDIF(A9,B9,"ym"),2)="10",RIGHT(DATEDIF(A9,B9,"ym"),2)="11",RIGHT(DATEDIF(A9,B9,"ym"),2)="12")," месяцев",IF(OR(RIGHT(DATEDIF(A9,B9,"ym"),1)="2",RIGHT(DATEDIF(A9,B9,"ym"),1)="3",RIGHT(DATEDIF(A9,B9,"ym"),1)="4")," месяца",IF(RIGHT(DATEDIF(A9,B9,"ym"),1)="0",""," месяц"))),IF(DATEDIF(A9,B9,"md")=0,"",_xlfn.CONCAT(" ",DATEDIF(A9,B9,"md"))),IF(OR(RIGHT(DATEDIF(A9,B9,"md"),1)="5",RIGHT(DATEDIF(A9,B9,"md"),1)="6",RIGHT(DATEDIF(A9,B9,"md"),1)="7",RIGHT(DATEDIF(A9,B9,"md"),1)="8",RIGHT(DATEDIF(A9,B9,"md"),1)="9",OR(RIGHT(DATEDIF(A9,B9,"md"),2)="10",RIGHT(DATEDIF(A9,B9,"md"),2)="20",RIGHT(DATEDIF(A9,B9,"md"),2)="30"),RIGHT(DATEDIF(A9,B9,"md"),2)="11",RIGHT(DATEDIF(A9,B9,"md"),2)="12",RIGHT(DATEDIF(A9,B9,"md"),2)="13",RIGHT(DATEDIF(A9,B9,"md"),2)="14")," дней",IF(OR(RIGHT(DATEDIF(A9,B9,"md"),1)="2",RIGHT(DATEDIF(A9,B9,"md"),1)="3",RIGHT(DATEDIF(A9,B9,"md"),1)="4")," дня",IF(RIGHT(DATEDIF(A9,B9,"md"),1)="0",""," день")))))</f>
         <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4:E9">
-    <cfRule type="expression" dxfId="55" priority="14">
-      <formula>$L4="Курганская область"</formula>
+  <conditionalFormatting sqref="C4:C9">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$J4="Курганская область"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E9">
-    <cfRule type="expression" dxfId="53" priority="2">
-      <formula>$L4="Свердловская область"</formula>
+  <conditionalFormatting sqref="C4:C9">
+    <cfRule type="expression" dxfId="12" priority="2">
+      <formula>$J4="Свердловская область"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="3">
-      <formula>$L4="Амурская область"</formula>
+    <cfRule type="expression" dxfId="11" priority="3">
+      <formula>$J4="Амурская область"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="4">
-      <formula>$L4="Республика Бурятия"</formula>
+    <cfRule type="expression" dxfId="10" priority="4">
+      <formula>$J4="Республика Бурятия"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="5">
-      <formula>$L4="Еврейская автономная область"</formula>
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>$J4="Еврейская автономная область"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="6">
-      <formula>$L4="Забайкальский край"</formula>
+    <cfRule type="expression" dxfId="8" priority="6">
+      <formula>$J4="Забайкальский край"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="7">
-      <formula>$L4="Камчатский край"</formula>
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$J4="Камчатский край"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="8">
-      <formula>$L4="Магаданская область"</formula>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$J4="Магаданская область"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="9">
-      <formula>$L4="Приморский край"</formula>
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>$J4="Приморский край"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="10">
-      <formula>$L4="Республика Саха (Якутия)"</formula>
+    <cfRule type="expression" dxfId="4" priority="10">
+      <formula>$J4="Республика Саха (Якутия)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="11">
-      <formula>$L4="Хабаровский край"</formula>
+    <cfRule type="expression" dxfId="3" priority="11">
+      <formula>$J4="Хабаровский край"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="12">
-      <formula>$L4="Чукотский автономный округ"</formula>
+    <cfRule type="expression" dxfId="2" priority="12">
+      <formula>$J4="Чукотский автономный округ"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="13">
-      <formula>$L4="Сахалинская область"</formula>
+    <cfRule type="expression" dxfId="1" priority="13">
+      <formula>$J4="Сахалинская область"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E9">
-    <cfRule type="expression" dxfId="29" priority="1">
-      <formula>$L4="Оренбургская область"</formula>
+  <conditionalFormatting sqref="C4:C9">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$J4="Оренбургская область"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/samples/test_sample.xlsx
+++ b/data/samples/test_sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="540" windowWidth="20775" windowHeight="7620" activeTab="4"/>
+    <workbookView xWindow="270" yWindow="540" windowWidth="20775" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_Data" sheetId="1" r:id="rId1"/>
@@ -477,6 +477,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -484,15 +493,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -836,24 +836,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="139964800"/>
-        <c:axId val="139966336"/>
+        <c:axId val="139972992"/>
+        <c:axId val="139974528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139964800"/>
+        <c:axId val="139972992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139966336"/>
+        <c:crossAx val="139974528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139966336"/>
+        <c:axId val="139974528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,19 +861,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139964800"/>
+        <c:crossAx val="139972992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -913,24 +914,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="140080640"/>
-        <c:axId val="140082176"/>
+        <c:axId val="140092928"/>
+        <c:axId val="140094464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140080640"/>
+        <c:axId val="140092928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140082176"/>
+        <c:crossAx val="140094464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140082176"/>
+        <c:axId val="140094464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -938,7 +939,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140080640"/>
+        <c:crossAx val="140092928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -950,7 +951,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1192,25 +1193,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="140101888"/>
-        <c:axId val="140132352"/>
-        <c:axId val="139582528"/>
+        <c:axId val="140146944"/>
+        <c:axId val="140214272"/>
+        <c:axId val="139568896"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="140101888"/>
+        <c:axId val="140146944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140132352"/>
+        <c:crossAx val="140214272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140132352"/>
+        <c:axId val="140214272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,18 +1219,18 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140101888"/>
+        <c:crossAx val="140146944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="139582528"/>
+        <c:axId val="139568896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140132352"/>
+        <c:crossAx val="140214272"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -1250,7 +1251,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1643,7 +1644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1779,13 +1780,13 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:10" ht="15.75" thickBot="1">
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10">
       <c r="F10" s="5" t="s">
@@ -2190,7 +2191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2202,13 +2203,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2217,75 +2218,75 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="20" t="e">
-        <f ca="1">TRIM(_xlfn.CONCAT(IF(DATEDIF(A4,B4,"y")=0,"",DATEDIF(A4,B4,"y")),IF(OR(RIGHT(DATEDIF(A4,B4,"y"),1)="5",RIGHT(DATEDIF(A4,B4,"y"),1)="6",RIGHT(DATEDIF(A4,B4,"y"),1)="7",RIGHT(DATEDIF(A4,B4,"y"),1)="8",RIGHT(DATEDIF(A4,B4,"y"),1)="9",OR(RIGHT(DATEDIF(A4,B4,"y"),2)="10",RIGHT(DATEDIF(A4,B4,"y"),2)="20",RIGHT(DATEDIF(A4,B4,"y"),2)="30",RIGHT(DATEDIF(A4,B4,"y"),2)="40",RIGHT(DATEDIF(A4,B4,"y"),2)="50",RIGHT(DATEDIF(A4,B4,"y"),2)="60",RIGHT(DATEDIF(A4,B4,"y"),2)="70",RIGHT(DATEDIF(A4,B4,"y"),2)="80",RIGHT(DATEDIF(A4,B4,"y"),2)="90",RIGHT(DATEDIF(A4,B4,"y"),2)="00"),RIGHT(DATEDIF(A4,B4,"y"),2)="11",RIGHT(DATEDIF(A4,B4,"y"),2)="12",RIGHT(DATEDIF(A4,B4,"y"),2)="13",RIGHT(DATEDIF(A4,B4,"y"),2)="14")," лет",IF(OR(RIGHT(DATEDIF(A4,B4,"y"),1)="2",RIGHT(DATEDIF(A4,B4,"y"),1)="3",RIGHT(DATEDIF(A4,B4,"y"),1)="4")," года",IF(RIGHT(DATEDIF(A4,B4,"y"),1)="0",""," год"))),IF(DATEDIF(A4,B4,"ym")=0,"",_xlfn.CONCAT(" ",DATEDIF(A4,B4,"ym"))),IF(OR(RIGHT(DATEDIF(A4,B4,"ym"),1)="5",RIGHT(DATEDIF(A4,B4,"ym"),1)="6",RIGHT(DATEDIF(A4,B4,"ym"),1)="7",RIGHT(DATEDIF(A4,B4,"ym"),1)="8",RIGHT(DATEDIF(A4,B4,"ym"),1)="9",RIGHT(DATEDIF(A4,B4,"ym"),2)="10",RIGHT(DATEDIF(A4,B4,"ym"),2)="11",RIGHT(DATEDIF(A4,B4,"ym"),2)="12")," месяцев",IF(OR(RIGHT(DATEDIF(A4,B4,"ym"),1)="2",RIGHT(DATEDIF(A4,B4,"ym"),1)="3",RIGHT(DATEDIF(A4,B4,"ym"),1)="4")," месяца",IF(RIGHT(DATEDIF(A4,B4,"ym"),1)="0",""," месяц"))),IF(DATEDIF(A4,B4,"md")=0,"",_xlfn.CONCAT(" ",DATEDIF(A4,B4,"md"))),IF(OR(RIGHT(DATEDIF(A4,B4,"md"),1)="5",RIGHT(DATEDIF(A4,B4,"md"),1)="6",RIGHT(DATEDIF(A4,B4,"md"),1)="7",RIGHT(DATEDIF(A4,B4,"md"),1)="8",RIGHT(DATEDIF(A4,B4,"md"),1)="9",OR(RIGHT(DATEDIF(A4,B4,"md"),2)="10",RIGHT(DATEDIF(A4,B4,"md"),2)="20",RIGHT(DATEDIF(A4,B4,"md"),2)="30"),RIGHT(DATEDIF(A4,B4,"md"),2)="11",RIGHT(DATEDIF(A4,B4,"md"),2)="12",RIGHT(DATEDIF(A4,B4,"md"),2)="13",RIGHT(DATEDIF(A4,B4,"md"),2)="14")," дней",IF(OR(RIGHT(DATEDIF(A4,B4,"md"),1)="2",RIGHT(DATEDIF(A4,B4,"md"),1)="3",RIGHT(DATEDIF(A4,B4,"md"),1)="4")," дня",IF(RIGHT(DATEDIF(A4,B4,"md"),1)="0",""," день")))))</f>
+      <c r="C4" s="17" t="e">
+        <f t="shared" ref="C4:C9" ca="1" si="0">TRIM(_xlfn.CONCAT(IF(DATEDIF(A4,B4,"y")=0,"",DATEDIF(A4,B4,"y")),IF(OR(RIGHT(DATEDIF(A4,B4,"y"),1)="5",RIGHT(DATEDIF(A4,B4,"y"),1)="6",RIGHT(DATEDIF(A4,B4,"y"),1)="7",RIGHT(DATEDIF(A4,B4,"y"),1)="8",RIGHT(DATEDIF(A4,B4,"y"),1)="9",OR(RIGHT(DATEDIF(A4,B4,"y"),2)="10",RIGHT(DATEDIF(A4,B4,"y"),2)="20",RIGHT(DATEDIF(A4,B4,"y"),2)="30",RIGHT(DATEDIF(A4,B4,"y"),2)="40",RIGHT(DATEDIF(A4,B4,"y"),2)="50",RIGHT(DATEDIF(A4,B4,"y"),2)="60",RIGHT(DATEDIF(A4,B4,"y"),2)="70",RIGHT(DATEDIF(A4,B4,"y"),2)="80",RIGHT(DATEDIF(A4,B4,"y"),2)="90",RIGHT(DATEDIF(A4,B4,"y"),2)="00"),RIGHT(DATEDIF(A4,B4,"y"),2)="11",RIGHT(DATEDIF(A4,B4,"y"),2)="12",RIGHT(DATEDIF(A4,B4,"y"),2)="13",RIGHT(DATEDIF(A4,B4,"y"),2)="14")," лет",IF(OR(RIGHT(DATEDIF(A4,B4,"y"),1)="2",RIGHT(DATEDIF(A4,B4,"y"),1)="3",RIGHT(DATEDIF(A4,B4,"y"),1)="4")," года",IF(RIGHT(DATEDIF(A4,B4,"y"),1)="0",""," год"))),IF(DATEDIF(A4,B4,"ym")=0,"",_xlfn.CONCAT(" ",DATEDIF(A4,B4,"ym"))),IF(OR(RIGHT(DATEDIF(A4,B4,"ym"),1)="5",RIGHT(DATEDIF(A4,B4,"ym"),1)="6",RIGHT(DATEDIF(A4,B4,"ym"),1)="7",RIGHT(DATEDIF(A4,B4,"ym"),1)="8",RIGHT(DATEDIF(A4,B4,"ym"),1)="9",RIGHT(DATEDIF(A4,B4,"ym"),2)="10",RIGHT(DATEDIF(A4,B4,"ym"),2)="11",RIGHT(DATEDIF(A4,B4,"ym"),2)="12")," месяцев",IF(OR(RIGHT(DATEDIF(A4,B4,"ym"),1)="2",RIGHT(DATEDIF(A4,B4,"ym"),1)="3",RIGHT(DATEDIF(A4,B4,"ym"),1)="4")," месяца",IF(RIGHT(DATEDIF(A4,B4,"ym"),1)="0",""," месяц"))),IF(DATEDIF(A4,B4,"md")=0,"",_xlfn.CONCAT(" ",DATEDIF(A4,B4,"md"))),IF(OR(RIGHT(DATEDIF(A4,B4,"md"),1)="5",RIGHT(DATEDIF(A4,B4,"md"),1)="6",RIGHT(DATEDIF(A4,B4,"md"),1)="7",RIGHT(DATEDIF(A4,B4,"md"),1)="8",RIGHT(DATEDIF(A4,B4,"md"),1)="9",OR(RIGHT(DATEDIF(A4,B4,"md"),2)="10",RIGHT(DATEDIF(A4,B4,"md"),2)="20",RIGHT(DATEDIF(A4,B4,"md"),2)="30"),RIGHT(DATEDIF(A4,B4,"md"),2)="11",RIGHT(DATEDIF(A4,B4,"md"),2)="12",RIGHT(DATEDIF(A4,B4,"md"),2)="13",RIGHT(DATEDIF(A4,B4,"md"),2)="14")," дней",IF(OR(RIGHT(DATEDIF(A4,B4,"md"),1)="2",RIGHT(DATEDIF(A4,B4,"md"),1)="3",RIGHT(DATEDIF(A4,B4,"md"),1)="4")," дня",IF(RIGHT(DATEDIF(A4,B4,"md"),1)="0",""," день")))))</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="20" t="e">
-        <f ca="1">TRIM(_xlfn.CONCAT(IF(DATEDIF(A5,B5,"y")=0,"",DATEDIF(A5,B5,"y")),IF(OR(RIGHT(DATEDIF(A5,B5,"y"),1)="5",RIGHT(DATEDIF(A5,B5,"y"),1)="6",RIGHT(DATEDIF(A5,B5,"y"),1)="7",RIGHT(DATEDIF(A5,B5,"y"),1)="8",RIGHT(DATEDIF(A5,B5,"y"),1)="9",OR(RIGHT(DATEDIF(A5,B5,"y"),2)="10",RIGHT(DATEDIF(A5,B5,"y"),2)="20",RIGHT(DATEDIF(A5,B5,"y"),2)="30",RIGHT(DATEDIF(A5,B5,"y"),2)="40",RIGHT(DATEDIF(A5,B5,"y"),2)="50",RIGHT(DATEDIF(A5,B5,"y"),2)="60",RIGHT(DATEDIF(A5,B5,"y"),2)="70",RIGHT(DATEDIF(A5,B5,"y"),2)="80",RIGHT(DATEDIF(A5,B5,"y"),2)="90",RIGHT(DATEDIF(A5,B5,"y"),2)="00"),RIGHT(DATEDIF(A5,B5,"y"),2)="11",RIGHT(DATEDIF(A5,B5,"y"),2)="12",RIGHT(DATEDIF(A5,B5,"y"),2)="13",RIGHT(DATEDIF(A5,B5,"y"),2)="14")," лет",IF(OR(RIGHT(DATEDIF(A5,B5,"y"),1)="2",RIGHT(DATEDIF(A5,B5,"y"),1)="3",RIGHT(DATEDIF(A5,B5,"y"),1)="4")," года",IF(RIGHT(DATEDIF(A5,B5,"y"),1)="0",""," год"))),IF(DATEDIF(A5,B5,"ym")=0,"",_xlfn.CONCAT(" ",DATEDIF(A5,B5,"ym"))),IF(OR(RIGHT(DATEDIF(A5,B5,"ym"),1)="5",RIGHT(DATEDIF(A5,B5,"ym"),1)="6",RIGHT(DATEDIF(A5,B5,"ym"),1)="7",RIGHT(DATEDIF(A5,B5,"ym"),1)="8",RIGHT(DATEDIF(A5,B5,"ym"),1)="9",RIGHT(DATEDIF(A5,B5,"ym"),2)="10",RIGHT(DATEDIF(A5,B5,"ym"),2)="11",RIGHT(DATEDIF(A5,B5,"ym"),2)="12")," месяцев",IF(OR(RIGHT(DATEDIF(A5,B5,"ym"),1)="2",RIGHT(DATEDIF(A5,B5,"ym"),1)="3",RIGHT(DATEDIF(A5,B5,"ym"),1)="4")," месяца",IF(RIGHT(DATEDIF(A5,B5,"ym"),1)="0",""," месяц"))),IF(DATEDIF(A5,B5,"md")=0,"",_xlfn.CONCAT(" ",DATEDIF(A5,B5,"md"))),IF(OR(RIGHT(DATEDIF(A5,B5,"md"),1)="5",RIGHT(DATEDIF(A5,B5,"md"),1)="6",RIGHT(DATEDIF(A5,B5,"md"),1)="7",RIGHT(DATEDIF(A5,B5,"md"),1)="8",RIGHT(DATEDIF(A5,B5,"md"),1)="9",OR(RIGHT(DATEDIF(A5,B5,"md"),2)="10",RIGHT(DATEDIF(A5,B5,"md"),2)="20",RIGHT(DATEDIF(A5,B5,"md"),2)="30"),RIGHT(DATEDIF(A5,B5,"md"),2)="11",RIGHT(DATEDIF(A5,B5,"md"),2)="12",RIGHT(DATEDIF(A5,B5,"md"),2)="13",RIGHT(DATEDIF(A5,B5,"md"),2)="14")," дней",IF(OR(RIGHT(DATEDIF(A5,B5,"md"),1)="2",RIGHT(DATEDIF(A5,B5,"md"),1)="3",RIGHT(DATEDIF(A5,B5,"md"),1)="4")," дня",IF(RIGHT(DATEDIF(A5,B5,"md"),1)="0",""," день")))))</f>
+      <c r="C5" s="17" t="e">
+        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="20" t="e">
-        <f ca="1">TRIM(_xlfn.CONCAT(IF(DATEDIF(A6,B6,"y")=0,"",DATEDIF(A6,B6,"y")),IF(OR(RIGHT(DATEDIF(A6,B6,"y"),1)="5",RIGHT(DATEDIF(A6,B6,"y"),1)="6",RIGHT(DATEDIF(A6,B6,"y"),1)="7",RIGHT(DATEDIF(A6,B6,"y"),1)="8",RIGHT(DATEDIF(A6,B6,"y"),1)="9",OR(RIGHT(DATEDIF(A6,B6,"y"),2)="10",RIGHT(DATEDIF(A6,B6,"y"),2)="20",RIGHT(DATEDIF(A6,B6,"y"),2)="30",RIGHT(DATEDIF(A6,B6,"y"),2)="40",RIGHT(DATEDIF(A6,B6,"y"),2)="50",RIGHT(DATEDIF(A6,B6,"y"),2)="60",RIGHT(DATEDIF(A6,B6,"y"),2)="70",RIGHT(DATEDIF(A6,B6,"y"),2)="80",RIGHT(DATEDIF(A6,B6,"y"),2)="90",RIGHT(DATEDIF(A6,B6,"y"),2)="00"),RIGHT(DATEDIF(A6,B6,"y"),2)="11",RIGHT(DATEDIF(A6,B6,"y"),2)="12",RIGHT(DATEDIF(A6,B6,"y"),2)="13",RIGHT(DATEDIF(A6,B6,"y"),2)="14")," лет",IF(OR(RIGHT(DATEDIF(A6,B6,"y"),1)="2",RIGHT(DATEDIF(A6,B6,"y"),1)="3",RIGHT(DATEDIF(A6,B6,"y"),1)="4")," года",IF(RIGHT(DATEDIF(A6,B6,"y"),1)="0",""," год"))),IF(DATEDIF(A6,B6,"ym")=0,"",_xlfn.CONCAT(" ",DATEDIF(A6,B6,"ym"))),IF(OR(RIGHT(DATEDIF(A6,B6,"ym"),1)="5",RIGHT(DATEDIF(A6,B6,"ym"),1)="6",RIGHT(DATEDIF(A6,B6,"ym"),1)="7",RIGHT(DATEDIF(A6,B6,"ym"),1)="8",RIGHT(DATEDIF(A6,B6,"ym"),1)="9",RIGHT(DATEDIF(A6,B6,"ym"),2)="10",RIGHT(DATEDIF(A6,B6,"ym"),2)="11",RIGHT(DATEDIF(A6,B6,"ym"),2)="12")," месяцев",IF(OR(RIGHT(DATEDIF(A6,B6,"ym"),1)="2",RIGHT(DATEDIF(A6,B6,"ym"),1)="3",RIGHT(DATEDIF(A6,B6,"ym"),1)="4")," месяца",IF(RIGHT(DATEDIF(A6,B6,"ym"),1)="0",""," месяц"))),IF(DATEDIF(A6,B6,"md")=0,"",_xlfn.CONCAT(" ",DATEDIF(A6,B6,"md"))),IF(OR(RIGHT(DATEDIF(A6,B6,"md"),1)="5",RIGHT(DATEDIF(A6,B6,"md"),1)="6",RIGHT(DATEDIF(A6,B6,"md"),1)="7",RIGHT(DATEDIF(A6,B6,"md"),1)="8",RIGHT(DATEDIF(A6,B6,"md"),1)="9",OR(RIGHT(DATEDIF(A6,B6,"md"),2)="10",RIGHT(DATEDIF(A6,B6,"md"),2)="20",RIGHT(DATEDIF(A6,B6,"md"),2)="30"),RIGHT(DATEDIF(A6,B6,"md"),2)="11",RIGHT(DATEDIF(A6,B6,"md"),2)="12",RIGHT(DATEDIF(A6,B6,"md"),2)="13",RIGHT(DATEDIF(A6,B6,"md"),2)="14")," дней",IF(OR(RIGHT(DATEDIF(A6,B6,"md"),1)="2",RIGHT(DATEDIF(A6,B6,"md"),1)="3",RIGHT(DATEDIF(A6,B6,"md"),1)="4")," дня",IF(RIGHT(DATEDIF(A6,B6,"md"),1)="0",""," день")))))</f>
+      <c r="C6" s="17" t="e">
+        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="20" t="e">
-        <f ca="1">TRIM(_xlfn.CONCAT(IF(DATEDIF(A7,B7,"y")=0,"",DATEDIF(A7,B7,"y")),IF(OR(RIGHT(DATEDIF(A7,B7,"y"),1)="5",RIGHT(DATEDIF(A7,B7,"y"),1)="6",RIGHT(DATEDIF(A7,B7,"y"),1)="7",RIGHT(DATEDIF(A7,B7,"y"),1)="8",RIGHT(DATEDIF(A7,B7,"y"),1)="9",OR(RIGHT(DATEDIF(A7,B7,"y"),2)="10",RIGHT(DATEDIF(A7,B7,"y"),2)="20",RIGHT(DATEDIF(A7,B7,"y"),2)="30",RIGHT(DATEDIF(A7,B7,"y"),2)="40",RIGHT(DATEDIF(A7,B7,"y"),2)="50",RIGHT(DATEDIF(A7,B7,"y"),2)="60",RIGHT(DATEDIF(A7,B7,"y"),2)="70",RIGHT(DATEDIF(A7,B7,"y"),2)="80",RIGHT(DATEDIF(A7,B7,"y"),2)="90",RIGHT(DATEDIF(A7,B7,"y"),2)="00"),RIGHT(DATEDIF(A7,B7,"y"),2)="11",RIGHT(DATEDIF(A7,B7,"y"),2)="12",RIGHT(DATEDIF(A7,B7,"y"),2)="13",RIGHT(DATEDIF(A7,B7,"y"),2)="14")," лет",IF(OR(RIGHT(DATEDIF(A7,B7,"y"),1)="2",RIGHT(DATEDIF(A7,B7,"y"),1)="3",RIGHT(DATEDIF(A7,B7,"y"),1)="4")," года",IF(RIGHT(DATEDIF(A7,B7,"y"),1)="0",""," год"))),IF(DATEDIF(A7,B7,"ym")=0,"",_xlfn.CONCAT(" ",DATEDIF(A7,B7,"ym"))),IF(OR(RIGHT(DATEDIF(A7,B7,"ym"),1)="5",RIGHT(DATEDIF(A7,B7,"ym"),1)="6",RIGHT(DATEDIF(A7,B7,"ym"),1)="7",RIGHT(DATEDIF(A7,B7,"ym"),1)="8",RIGHT(DATEDIF(A7,B7,"ym"),1)="9",RIGHT(DATEDIF(A7,B7,"ym"),2)="10",RIGHT(DATEDIF(A7,B7,"ym"),2)="11",RIGHT(DATEDIF(A7,B7,"ym"),2)="12")," месяцев",IF(OR(RIGHT(DATEDIF(A7,B7,"ym"),1)="2",RIGHT(DATEDIF(A7,B7,"ym"),1)="3",RIGHT(DATEDIF(A7,B7,"ym"),1)="4")," месяца",IF(RIGHT(DATEDIF(A7,B7,"ym"),1)="0",""," месяц"))),IF(DATEDIF(A7,B7,"md")=0,"",_xlfn.CONCAT(" ",DATEDIF(A7,B7,"md"))),IF(OR(RIGHT(DATEDIF(A7,B7,"md"),1)="5",RIGHT(DATEDIF(A7,B7,"md"),1)="6",RIGHT(DATEDIF(A7,B7,"md"),1)="7",RIGHT(DATEDIF(A7,B7,"md"),1)="8",RIGHT(DATEDIF(A7,B7,"md"),1)="9",OR(RIGHT(DATEDIF(A7,B7,"md"),2)="10",RIGHT(DATEDIF(A7,B7,"md"),2)="20",RIGHT(DATEDIF(A7,B7,"md"),2)="30"),RIGHT(DATEDIF(A7,B7,"md"),2)="11",RIGHT(DATEDIF(A7,B7,"md"),2)="12",RIGHT(DATEDIF(A7,B7,"md"),2)="13",RIGHT(DATEDIF(A7,B7,"md"),2)="14")," дней",IF(OR(RIGHT(DATEDIF(A7,B7,"md"),1)="2",RIGHT(DATEDIF(A7,B7,"md"),1)="3",RIGHT(DATEDIF(A7,B7,"md"),1)="4")," дня",IF(RIGHT(DATEDIF(A7,B7,"md"),1)="0",""," день")))))</f>
+      <c r="C7" s="17" t="e">
+        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="20" t="e">
-        <f ca="1">TRIM(_xlfn.CONCAT(IF(DATEDIF(A8,B8,"y")=0,"",DATEDIF(A8,B8,"y")),IF(OR(RIGHT(DATEDIF(A8,B8,"y"),1)="5",RIGHT(DATEDIF(A8,B8,"y"),1)="6",RIGHT(DATEDIF(A8,B8,"y"),1)="7",RIGHT(DATEDIF(A8,B8,"y"),1)="8",RIGHT(DATEDIF(A8,B8,"y"),1)="9",OR(RIGHT(DATEDIF(A8,B8,"y"),2)="10",RIGHT(DATEDIF(A8,B8,"y"),2)="20",RIGHT(DATEDIF(A8,B8,"y"),2)="30",RIGHT(DATEDIF(A8,B8,"y"),2)="40",RIGHT(DATEDIF(A8,B8,"y"),2)="50",RIGHT(DATEDIF(A8,B8,"y"),2)="60",RIGHT(DATEDIF(A8,B8,"y"),2)="70",RIGHT(DATEDIF(A8,B8,"y"),2)="80",RIGHT(DATEDIF(A8,B8,"y"),2)="90",RIGHT(DATEDIF(A8,B8,"y"),2)="00"),RIGHT(DATEDIF(A8,B8,"y"),2)="11",RIGHT(DATEDIF(A8,B8,"y"),2)="12",RIGHT(DATEDIF(A8,B8,"y"),2)="13",RIGHT(DATEDIF(A8,B8,"y"),2)="14")," лет",IF(OR(RIGHT(DATEDIF(A8,B8,"y"),1)="2",RIGHT(DATEDIF(A8,B8,"y"),1)="3",RIGHT(DATEDIF(A8,B8,"y"),1)="4")," года",IF(RIGHT(DATEDIF(A8,B8,"y"),1)="0",""," год"))),IF(DATEDIF(A8,B8,"ym")=0,"",_xlfn.CONCAT(" ",DATEDIF(A8,B8,"ym"))),IF(OR(RIGHT(DATEDIF(A8,B8,"ym"),1)="5",RIGHT(DATEDIF(A8,B8,"ym"),1)="6",RIGHT(DATEDIF(A8,B8,"ym"),1)="7",RIGHT(DATEDIF(A8,B8,"ym"),1)="8",RIGHT(DATEDIF(A8,B8,"ym"),1)="9",RIGHT(DATEDIF(A8,B8,"ym"),2)="10",RIGHT(DATEDIF(A8,B8,"ym"),2)="11",RIGHT(DATEDIF(A8,B8,"ym"),2)="12")," месяцев",IF(OR(RIGHT(DATEDIF(A8,B8,"ym"),1)="2",RIGHT(DATEDIF(A8,B8,"ym"),1)="3",RIGHT(DATEDIF(A8,B8,"ym"),1)="4")," месяца",IF(RIGHT(DATEDIF(A8,B8,"ym"),1)="0",""," месяц"))),IF(DATEDIF(A8,B8,"md")=0,"",_xlfn.CONCAT(" ",DATEDIF(A8,B8,"md"))),IF(OR(RIGHT(DATEDIF(A8,B8,"md"),1)="5",RIGHT(DATEDIF(A8,B8,"md"),1)="6",RIGHT(DATEDIF(A8,B8,"md"),1)="7",RIGHT(DATEDIF(A8,B8,"md"),1)="8",RIGHT(DATEDIF(A8,B8,"md"),1)="9",OR(RIGHT(DATEDIF(A8,B8,"md"),2)="10",RIGHT(DATEDIF(A8,B8,"md"),2)="20",RIGHT(DATEDIF(A8,B8,"md"),2)="30"),RIGHT(DATEDIF(A8,B8,"md"),2)="11",RIGHT(DATEDIF(A8,B8,"md"),2)="12",RIGHT(DATEDIF(A8,B8,"md"),2)="13",RIGHT(DATEDIF(A8,B8,"md"),2)="14")," дней",IF(OR(RIGHT(DATEDIF(A8,B8,"md"),1)="2",RIGHT(DATEDIF(A8,B8,"md"),1)="3",RIGHT(DATEDIF(A8,B8,"md"),1)="4")," дня",IF(RIGHT(DATEDIF(A8,B8,"md"),1)="0",""," день")))))</f>
+      <c r="C8" s="17" t="e">
+        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="20" t="e">
-        <f ca="1">TRIM(_xlfn.CONCAT(IF(DATEDIF(A9,B9,"y")=0,"",DATEDIF(A9,B9,"y")),IF(OR(RIGHT(DATEDIF(A9,B9,"y"),1)="5",RIGHT(DATEDIF(A9,B9,"y"),1)="6",RIGHT(DATEDIF(A9,B9,"y"),1)="7",RIGHT(DATEDIF(A9,B9,"y"),1)="8",RIGHT(DATEDIF(A9,B9,"y"),1)="9",OR(RIGHT(DATEDIF(A9,B9,"y"),2)="10",RIGHT(DATEDIF(A9,B9,"y"),2)="20",RIGHT(DATEDIF(A9,B9,"y"),2)="30",RIGHT(DATEDIF(A9,B9,"y"),2)="40",RIGHT(DATEDIF(A9,B9,"y"),2)="50",RIGHT(DATEDIF(A9,B9,"y"),2)="60",RIGHT(DATEDIF(A9,B9,"y"),2)="70",RIGHT(DATEDIF(A9,B9,"y"),2)="80",RIGHT(DATEDIF(A9,B9,"y"),2)="90",RIGHT(DATEDIF(A9,B9,"y"),2)="00"),RIGHT(DATEDIF(A9,B9,"y"),2)="11",RIGHT(DATEDIF(A9,B9,"y"),2)="12",RIGHT(DATEDIF(A9,B9,"y"),2)="13",RIGHT(DATEDIF(A9,B9,"y"),2)="14")," лет",IF(OR(RIGHT(DATEDIF(A9,B9,"y"),1)="2",RIGHT(DATEDIF(A9,B9,"y"),1)="3",RIGHT(DATEDIF(A9,B9,"y"),1)="4")," года",IF(RIGHT(DATEDIF(A9,B9,"y"),1)="0",""," год"))),IF(DATEDIF(A9,B9,"ym")=0,"",_xlfn.CONCAT(" ",DATEDIF(A9,B9,"ym"))),IF(OR(RIGHT(DATEDIF(A9,B9,"ym"),1)="5",RIGHT(DATEDIF(A9,B9,"ym"),1)="6",RIGHT(DATEDIF(A9,B9,"ym"),1)="7",RIGHT(DATEDIF(A9,B9,"ym"),1)="8",RIGHT(DATEDIF(A9,B9,"ym"),1)="9",RIGHT(DATEDIF(A9,B9,"ym"),2)="10",RIGHT(DATEDIF(A9,B9,"ym"),2)="11",RIGHT(DATEDIF(A9,B9,"ym"),2)="12")," месяцев",IF(OR(RIGHT(DATEDIF(A9,B9,"ym"),1)="2",RIGHT(DATEDIF(A9,B9,"ym"),1)="3",RIGHT(DATEDIF(A9,B9,"ym"),1)="4")," месяца",IF(RIGHT(DATEDIF(A9,B9,"ym"),1)="0",""," месяц"))),IF(DATEDIF(A9,B9,"md")=0,"",_xlfn.CONCAT(" ",DATEDIF(A9,B9,"md"))),IF(OR(RIGHT(DATEDIF(A9,B9,"md"),1)="5",RIGHT(DATEDIF(A9,B9,"md"),1)="6",RIGHT(DATEDIF(A9,B9,"md"),1)="7",RIGHT(DATEDIF(A9,B9,"md"),1)="8",RIGHT(DATEDIF(A9,B9,"md"),1)="9",OR(RIGHT(DATEDIF(A9,B9,"md"),2)="10",RIGHT(DATEDIF(A9,B9,"md"),2)="20",RIGHT(DATEDIF(A9,B9,"md"),2)="30"),RIGHT(DATEDIF(A9,B9,"md"),2)="11",RIGHT(DATEDIF(A9,B9,"md"),2)="12",RIGHT(DATEDIF(A9,B9,"md"),2)="13",RIGHT(DATEDIF(A9,B9,"md"),2)="14")," дней",IF(OR(RIGHT(DATEDIF(A9,B9,"md"),1)="2",RIGHT(DATEDIF(A9,B9,"md"),1)="3",RIGHT(DATEDIF(A9,B9,"md"),1)="4")," дня",IF(RIGHT(DATEDIF(A9,B9,"md"),1)="0",""," день")))))</f>
+      <c r="C9" s="17" t="e">
+        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
     </row>
